--- a/ASHRAE901_ApartmentHighRise_STD2019_HonoluluTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_HonoluluTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1997.66</t>
+          <t>3056.62</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1439.25</t>
+          <t>2828.91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>385.49</t>
+          <t>503.54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1184.21</t>
+          <t>2327.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>955.60</t>
+          <t>1853.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>948.57</t>
+          <t>1840.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1345.42</t>
+          <t>2050.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1338.81</t>
+          <t>2047.10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2291.93</t>
+          <t>3498.77</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1648.47</t>
+          <t>3234.31</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1896.18</t>
+          <t>2940.92</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1324.20</t>
+          <t>2599.63</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1051.59</t>
+          <t>1985.43</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1042.66</t>
+          <t>1971.00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1442.24</t>
+          <t>2198.93</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1436.58</t>
+          <t>2228.65</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2282.23</t>
+          <t>3483.55</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1637.09</t>
+          <t>3239.98</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1880.19</t>
+          <t>2945.49</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1313.52</t>
+          <t>2599.87</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1043.73</t>
+          <t>1980.73</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1034.83</t>
+          <t>1966.34</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1435.90</t>
+          <t>2193.92</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1429.95</t>
+          <t>2224.60</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2290.47</t>
+          <t>3502.55</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1634.49</t>
+          <t>3266.45</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1885.78</t>
+          <t>2962.22</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1311.49</t>
+          <t>2618.50</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1020.77</t>
+          <t>2000.94</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1012.20</t>
+          <t>1986.51</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1444.30</t>
+          <t>2234.53</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1437.11</t>
+          <t>2240.40</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2298.39</t>
+          <t>3517.62</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1631.26</t>
+          <t>3290.84</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1892.39</t>
+          <t>2983.58</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1308.47</t>
+          <t>2638.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1019.45</t>
+          <t>2022.59</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1010.94</t>
+          <t>2008.35</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1451.54</t>
+          <t>2251.57</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1444.30</t>
+          <t>2257.66</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2303.72</t>
+          <t>3536.74</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1628.75</t>
+          <t>3305.50</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1897.16</t>
+          <t>3007.09</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1137.08</t>
+          <t>2667.90</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1018.45</t>
+          <t>2054.44</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1010.00</t>
+          <t>2037.95</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1457.02</t>
+          <t>2267.75</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1449.78</t>
+          <t>2273.23</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2307.20</t>
+          <t>3556.50</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1412.57</t>
+          <t>3324.93</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1900.62</t>
+          <t>3025.77</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>858.45</t>
+          <t>2682.33</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1017.96</t>
+          <t>2074.38</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1009.56</t>
+          <t>2057.94</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1461.45</t>
+          <t>2280.24</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1454.23</t>
+          <t>2289.38</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2104.49</t>
+          <t>3575.89</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1228.30</t>
+          <t>3347.43</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1867.52</t>
+          <t>3046.23</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>672.49</t>
+          <t>2703.01</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1015.85</t>
+          <t>2095.77</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>948.33</t>
+          <t>2081.13</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1469.09</t>
+          <t>2298.08</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1461.91</t>
+          <t>2303.32</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2394.73</t>
+          <t>3667.55</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1577.40</t>
+          <t>3445.12</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1969.73</t>
+          <t>3104.60</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1029.96</t>
+          <t>2762.86</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1069.04</t>
+          <t>2177.66</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1060.60</t>
+          <t>2163.09</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1535.98</t>
+          <t>2335.32</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1528.67</t>
+          <t>2352.79</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3876.90</t>
+          <t>4268.81</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1913.69</t>
+          <t>3904.42</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2290.78</t>
+          <t>3662.04</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1548.64</t>
+          <t>3183.23</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1232.44</t>
+          <t>2496.24</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1218.17</t>
+          <t>2466.65</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2684.88</t>
+          <t>2930.21</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2688.76</t>
+          <t>2935.69</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>766.80</t>
+          <t>3026.82</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>103.22</t>
+          <t>2870.65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>277.14</t>
+          <t>604.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>102.82</t>
+          <t>2406.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>112.21</t>
+          <t>1912.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>112.05</t>
+          <t>1898.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1090.01</t>
+          <t>2055.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1062.09</t>
+          <t>2048.31</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1325.52</t>
+          <t>3433.80</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>103.08</t>
+          <t>3238.24</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1382.94</t>
+          <t>2973.19</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>102.86</t>
+          <t>2644.36</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>113.46</t>
+          <t>2064.50</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>113.33</t>
+          <t>2049.24</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1491.65</t>
+          <t>2189.37</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1429.89</t>
+          <t>2221.30</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1179.44</t>
+          <t>3419.47</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>102.85</t>
+          <t>3242.48</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>653.24</t>
+          <t>2967.43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>2637.32</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>113.57</t>
+          <t>2051.00</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>113.45</t>
+          <t>2037.85</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1401.04</t>
+          <t>2173.08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1313.56</t>
+          <t>2208.15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>959.25</t>
+          <t>3441.02</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>102.31</t>
+          <t>3275.12</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>311.29</t>
+          <t>2978.65</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>102.21</t>
+          <t>2653.59</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>112.88</t>
+          <t>2068.57</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>112.77</t>
+          <t>2053.64</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1204.80</t>
+          <t>2205.82</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1112.78</t>
+          <t>2215.42</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>731.57</t>
+          <t>3462.47</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>101.74</t>
+          <t>3304.20</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>102.88</t>
+          <t>2990.61</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>101.68</t>
+          <t>2667.57</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>111.97</t>
+          <t>2080.43</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>111.88</t>
+          <t>2063.45</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>985.67</t>
+          <t>2216.86</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>896.57</t>
+          <t>2223.68</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>509.03</t>
+          <t>3482.79</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>101.23</t>
+          <t>3353.44</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>102.24</t>
+          <t>3002.62</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>101.19</t>
+          <t>2668.08</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>111.05</t>
+          <t>2093.00</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>110.96</t>
+          <t>2073.71</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>765.26</t>
+          <t>2223.32</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>678.85</t>
+          <t>2231.52</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>293.81</t>
+          <t>3503.21</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>100.75</t>
+          <t>3376.78</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>101.64</t>
+          <t>3015.95</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>100.73</t>
+          <t>2676.84</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>110.08</t>
+          <t>2105.07</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>2085.49</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>551.43</t>
+          <t>2234.01</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>465.64</t>
+          <t>2239.79</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>111.92</t>
+          <t>3527.74</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>100.14</t>
+          <t>3403.13</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>3034.06</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>100.15</t>
+          <t>2694.69</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>2121.62</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>108.73</t>
+          <t>2102.20</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>344.28</t>
+          <t>2247.37</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>264.51</t>
+          <t>2254.34</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>189.34</t>
+          <t>3627.49</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>99.01</t>
+          <t>3510.81</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>178.29</t>
+          <t>3094.81</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>2750.74</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>106.74</t>
+          <t>2199.28</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>106.70</t>
+          <t>2184.12</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>372.73</t>
+          <t>2297.11</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>319.13</t>
+          <t>2316.30</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>1818.28</t>
+          <t>4288.90</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>3963.66</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1554.33</t>
+          <t>3627.92</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>3194.08</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>103.22</t>
+          <t>2480.28</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>103.21</t>
+          <t>2453.84</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1297.65</t>
+          <t>2881.88</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1299.80</t>
+          <t>2885.33</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2127.43</t>
+          <t>3067.59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1882.51</t>
+          <t>2926.47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>290.67</t>
+          <t>642.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1473.60</t>
+          <t>2442.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1204.20</t>
+          <t>1948.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1197.90</t>
+          <t>1936.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1314.11</t>
+          <t>2041.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1316.98</t>
+          <t>2018.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2514.52</t>
+          <t>3480.92</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2228.68</t>
+          <t>3301.91</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2082.35</t>
+          <t>2935.48</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1711.80</t>
+          <t>2689.03</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1280.86</t>
+          <t>2063.48</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1272.69</t>
+          <t>2048.84</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1448.93</t>
+          <t>2176.20</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1454.44</t>
+          <t>2201.85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2502.88</t>
+          <t>3465.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2233.97</t>
+          <t>3308.52</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2033.38</t>
+          <t>2939.84</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1710.64</t>
+          <t>2692.14</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1275.17</t>
+          <t>2071.82</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1267.03</t>
+          <t>2058.85</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1448.02</t>
+          <t>2148.20</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1449.87</t>
+          <t>2178.58</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2496.52</t>
+          <t>3511.21</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2241.52</t>
+          <t>3335.73</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2032.74</t>
+          <t>2950.78</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1715.68</t>
+          <t>2696.37</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1280.27</t>
+          <t>2083.69</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1272.11</t>
+          <t>2082.45</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1439.45</t>
+          <t>2178.56</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1438.12</t>
+          <t>2185.45</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2495.76</t>
+          <t>3535.10</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2249.50</t>
+          <t>3360.82</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2026.21</t>
+          <t>2966.59</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1722.70</t>
+          <t>2713.52</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1284.89</t>
+          <t>2095.39</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1276.71</t>
+          <t>2078.99</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1436.56</t>
+          <t>2205.32</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1429.65</t>
+          <t>2211.17</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2492.52</t>
+          <t>3553.41</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2256.55</t>
+          <t>3381.14</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2010.34</t>
+          <t>3005.17</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1729.31</t>
+          <t>2726.14</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1288.73</t>
+          <t>2112.45</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1280.51</t>
+          <t>2095.95</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1440.03</t>
+          <t>2211.72</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1432.48</t>
+          <t>2217.82</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2482.54</t>
+          <t>3569.33</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2259.39</t>
+          <t>3400.38</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2005.49</t>
+          <t>3032.97</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1732.97</t>
+          <t>2735.56</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1293.13</t>
+          <t>2129.92</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1284.90</t>
+          <t>2114.06</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1435.88</t>
+          <t>2235.74</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1429.68</t>
+          <t>2236.84</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2494.70</t>
+          <t>3592.12</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2276.13</t>
+          <t>3425.79</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2012.60</t>
+          <t>3056.66</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1748.53</t>
+          <t>2757.77</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1302.52</t>
+          <t>2152.93</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1294.33</t>
+          <t>2136.25</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1446.32</t>
+          <t>2253.38</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1440.75</t>
+          <t>2259.05</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2605.47</t>
+          <t>3708.61</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2386.27</t>
+          <t>3538.96</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2104.42</t>
+          <t>3137.74</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1822.20</t>
+          <t>2817.24</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1353.98</t>
+          <t>2236.61</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1348.05</t>
+          <t>2221.73</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1538.69</t>
+          <t>2308.38</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1533.46</t>
+          <t>2329.01</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3212.32</t>
+          <t>4339.82</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2899.89</t>
+          <t>4096.79</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2660.40</t>
+          <t>3657.56</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2249.56</t>
+          <t>3274.20</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1673.23</t>
+          <t>2541.74</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1654.87</t>
+          <t>2513.55</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2071.44</t>
+          <t>2894.13</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2079.21</t>
+          <t>2904.26</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2228.34</t>
+          <t>3018.59</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2183.69</t>
+          <t>2902.98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>305.99</t>
+          <t>669.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1791.56</t>
+          <t>2436.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1409.22</t>
+          <t>1956.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1403.84</t>
+          <t>1943.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1458.30</t>
+          <t>2009.07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1484.51</t>
+          <t>2007.07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2585.51</t>
+          <t>3401.17</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2532.19</t>
+          <t>3261.65</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2280.77</t>
+          <t>2894.25</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020.46</t>
+          <t>2668.67</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1527.34</t>
+          <t>2062.28</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1520.16</t>
+          <t>2049.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1580.43</t>
+          <t>2116.26</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1585.47</t>
+          <t>2143.75</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2555.75</t>
+          <t>3387.34</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2509.01</t>
+          <t>3258.25</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2123.82</t>
+          <t>2910.12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2006.63</t>
+          <t>2696.43</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1518.66</t>
+          <t>2047.14</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1511.63</t>
+          <t>2034.22</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1565.89</t>
+          <t>2109.19</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1562.60</t>
+          <t>2135.35</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2558.38</t>
+          <t>3404.60</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2509.33</t>
+          <t>3280.69</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2117.89</t>
+          <t>2929.20</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2010.78</t>
+          <t>2695.93</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1523.70</t>
+          <t>2059.74</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1516.75</t>
+          <t>2046.48</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1574.79</t>
+          <t>2160.47</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1568.66</t>
+          <t>2163.87</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2558.98</t>
+          <t>3423.62</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2439.51</t>
+          <t>3298.78</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2074.04</t>
+          <t>2952.46</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1952.50</t>
+          <t>2709.70</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1499.40</t>
+          <t>2074.81</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1490.84</t>
+          <t>2060.11</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1583.62</t>
+          <t>2158.01</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1577.19</t>
+          <t>2173.22</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2567.71</t>
+          <t>3440.04</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2451.42</t>
+          <t>3315.24</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2081.25</t>
+          <t>2973.54</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1956.54</t>
+          <t>2727.53</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1501.98</t>
+          <t>2090.17</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1494.19</t>
+          <t>2075.40</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1591.65</t>
+          <t>2171.14</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1585.12</t>
+          <t>2176.85</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2516.58</t>
+          <t>3455.49</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2463.06</t>
+          <t>3333.14</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2048.09</t>
+          <t>2992.95</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1965.57</t>
+          <t>2744.72</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1505.85</t>
+          <t>2104.82</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1498.37</t>
+          <t>2090.03</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1599.73</t>
+          <t>2183.82</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1593.17</t>
+          <t>2189.42</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2502.32</t>
+          <t>3476.01</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2424.55</t>
+          <t>3357.44</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2054.89</t>
+          <t>3010.25</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1965.25</t>
+          <t>2769.70</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1517.72</t>
+          <t>2125.61</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1508.98</t>
+          <t>2110.84</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1612.76</t>
+          <t>2201.13</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1606.17</t>
+          <t>2206.45</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2598.28</t>
+          <t>3568.73</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2504.42</t>
+          <t>3445.98</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2134.10</t>
+          <t>3084.56</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2014.13</t>
+          <t>2835.34</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1583.23</t>
+          <t>2208.81</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1574.23</t>
+          <t>2197.75</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1663.04</t>
+          <t>2255.85</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1665.63</t>
+          <t>2273.27</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2959.24</t>
+          <t>4078.65</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2888.80</t>
+          <t>3927.76</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2480.46</t>
+          <t>3601.25</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2333.71</t>
+          <t>3310.19</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1880.40</t>
+          <t>2490.11</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1875.34</t>
+          <t>2469.99</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2005.54</t>
+          <t>2776.07</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1999.14</t>
+          <t>2788.59</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2523.25</t>
+          <t>2938.63</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2507.12</t>
+          <t>2873.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>276.94</t>
+          <t>991.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2033.25</t>
+          <t>2420.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1601.67</t>
+          <t>1929.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1592.75</t>
+          <t>1916.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1604.02</t>
+          <t>1965.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1617.65</t>
+          <t>1971.37</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2877.99</t>
+          <t>3335.85</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2838.88</t>
+          <t>3244.22</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2374.68</t>
+          <t>2859.51</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2243.64</t>
+          <t>2701.17</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1696.42</t>
+          <t>2052.66</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1685.00</t>
+          <t>2039.87</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1694.82</t>
+          <t>2085.94</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1693.82</t>
+          <t>2124.40</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2848.76</t>
+          <t>3339.45</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2812.14</t>
+          <t>3241.27</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2295.42</t>
+          <t>2847.47</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2219.43</t>
+          <t>2678.28</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1677.03</t>
+          <t>2048.52</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1665.64</t>
+          <t>2036.02</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1674.99</t>
+          <t>2070.58</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1669.57</t>
+          <t>2097.15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2851.75</t>
+          <t>3374.28</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2814.44</t>
+          <t>3264.22</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2289.51</t>
+          <t>2866.81</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2220.83</t>
+          <t>2688.67</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1678.82</t>
+          <t>2045.06</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1667.65</t>
+          <t>2032.58</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1679.20</t>
+          <t>2105.09</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1671.00</t>
+          <t>2111.31</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2857.12</t>
+          <t>3390.85</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2819.00</t>
+          <t>3287.63</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2292.37</t>
+          <t>2892.42</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2223.21</t>
+          <t>2698.11</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1681.58</t>
+          <t>2061.74</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1670.56</t>
+          <t>2047.09</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1683.32</t>
+          <t>2135.41</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1674.68</t>
+          <t>2140.93</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2822.63</t>
+          <t>3393.49</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2779.74</t>
+          <t>3312.24</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2265.52</t>
+          <t>2912.51</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2205.24</t>
+          <t>2706.29</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1673.55</t>
+          <t>2089.83</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1663.38</t>
+          <t>2076.51</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1669.07</t>
+          <t>2152.19</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1661.19</t>
+          <t>2157.50</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2827.37</t>
+          <t>3410.94</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2783.95</t>
+          <t>3334.66</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2269.90</t>
+          <t>2971.80</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2211.90</t>
+          <t>2715.73</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1680.02</t>
+          <t>2102.45</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1669.52</t>
+          <t>2089.13</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1675.79</t>
+          <t>2170.86</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1667.83</t>
+          <t>2176.81</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2837.76</t>
+          <t>3435.49</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2794.77</t>
+          <t>3360.80</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2279.51</t>
+          <t>2997.74</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2224.56</t>
+          <t>2732.91</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1691.58</t>
+          <t>2125.34</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1680.98</t>
+          <t>2112.01</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1687.04</t>
+          <t>2189.89</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1679.06</t>
+          <t>2195.73</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2926.68</t>
+          <t>3527.67</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2892.19</t>
+          <t>3451.86</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2358.04</t>
+          <t>3074.30</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2285.47</t>
+          <t>2786.17</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1760.80</t>
+          <t>2203.26</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1750.25</t>
+          <t>2189.92</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1748.61</t>
+          <t>2251.20</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1743.01</t>
+          <t>2269.07</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3425.00</t>
+          <t>3978.83</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3367.04</t>
+          <t>3813.91</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2785.42</t>
+          <t>3507.43</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2655.94</t>
+          <t>3183.65</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2048.13</t>
+          <t>2450.48</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2026.69</t>
+          <t>2421.54</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2180.76</t>
+          <t>2708.90</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2181.81</t>
+          <t>2715.42</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2108.26</t>
+          <t>2879.41</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2177.89</t>
+          <t>2825.34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>477.71</t>
+          <t>1115.27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1755.25</t>
+          <t>2368.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1338.88</t>
+          <t>1888.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1330.18</t>
+          <t>1876.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1320.07</t>
+          <t>1931.11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1354.48</t>
+          <t>1921.10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2404.65</t>
+          <t>3277.77</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2504.39</t>
+          <t>3180.28</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2119.79</t>
+          <t>2783.42</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1972.85</t>
+          <t>2607.50</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1439.90</t>
+          <t>2002.20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1429.00</t>
+          <t>1989.46</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1428.75</t>
+          <t>2043.83</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1431.78</t>
+          <t>2071.60</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2374.44</t>
+          <t>3276.35</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2474.89</t>
+          <t>3189.26</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1965.07</t>
+          <t>2775.97</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1952.67</t>
+          <t>2593.06</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1423.08</t>
+          <t>1999.38</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1412.54</t>
+          <t>1986.63</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1413.49</t>
+          <t>2036.60</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1410.31</t>
+          <t>2066.19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2368.62</t>
+          <t>3308.99</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2485.08</t>
+          <t>3220.96</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1957.16</t>
+          <t>2791.36</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1960.45</t>
+          <t>2606.22</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1429.43</t>
+          <t>2016.31</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1419.08</t>
+          <t>2003.58</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1419.10</t>
+          <t>2074.80</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1412.83</t>
+          <t>2080.23</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2366.08</t>
+          <t>3340.41</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2496.58</t>
+          <t>3250.49</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1962.28</t>
+          <t>2811.41</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1968.86</t>
+          <t>2620.14</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1437.57</t>
+          <t>2033.20</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1427.25</t>
+          <t>2020.45</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1425.59</t>
+          <t>2091.34</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1418.93</t>
+          <t>2096.58</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2364.69</t>
+          <t>3366.25</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2506.99</t>
+          <t>3276.70</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1968.36</t>
+          <t>2848.66</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1976.62</t>
+          <t>2657.51</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1445.03</t>
+          <t>2048.15</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1434.70</t>
+          <t>2035.39</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1431.78</t>
+          <t>2106.16</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1424.97</t>
+          <t>2111.23</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2363.59</t>
+          <t>3385.90</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2516.68</t>
+          <t>3302.29</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1974.42</t>
+          <t>2871.35</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1982.34</t>
+          <t>2675.13</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1452.43</t>
+          <t>2062.21</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1442.10</t>
+          <t>2049.45</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1438.14</t>
+          <t>2120.23</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1431.31</t>
+          <t>2125.16</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2366.05</t>
+          <t>3409.71</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2530.54</t>
+          <t>3332.74</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1985.21</t>
+          <t>2898.71</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1994.44</t>
+          <t>2696.59</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1464.97</t>
+          <t>2081.18</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1454.65</t>
+          <t>2068.45</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1458.22</t>
+          <t>2138.65</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1451.39</t>
+          <t>2143.45</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2428.78</t>
+          <t>3507.39</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2601.25</t>
+          <t>3434.86</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2053.78</t>
+          <t>2976.02</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2050.52</t>
+          <t>2751.01</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1535.47</t>
+          <t>2157.63</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1525.11</t>
+          <t>2144.81</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1521.73</t>
+          <t>2192.01</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1514.94</t>
+          <t>2208.95</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2890.36</t>
+          <t>3887.67</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3041.92</t>
+          <t>3788.44</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2394.25</t>
+          <t>3386.64</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2420.86</t>
+          <t>3116.76</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1837.41</t>
+          <t>2413.33</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1816.93</t>
+          <t>2385.03</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1897.47</t>
+          <t>2684.16</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1887.72</t>
+          <t>2689.74</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2150.36</t>
+          <t>2854.77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2185.77</t>
+          <t>2850.61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>588.85</t>
+          <t>1369.24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1798.17</t>
+          <t>2409.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1370.56</t>
+          <t>1932.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1362.51</t>
+          <t>1920.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1357.79</t>
+          <t>1930.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1388.04</t>
+          <t>1921.60</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2432.24</t>
+          <t>3224.54</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2504.91</t>
+          <t>3186.73</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2155.77</t>
+          <t>2770.93</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2001.52</t>
+          <t>2635.27</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1468.68</t>
+          <t>2038.75</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1458.79</t>
+          <t>2025.80</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1458.19</t>
+          <t>2040.44</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1460.50</t>
+          <t>2068.29</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2385.50</t>
+          <t>3194.84</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2471.16</t>
+          <t>3178.58</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2010.27</t>
+          <t>2745.46</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1983.62</t>
+          <t>2626.36</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1452.06</t>
+          <t>2028.16</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1444.09</t>
+          <t>2015.23</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1444.47</t>
+          <t>2031.85</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1441.47</t>
+          <t>2061.71</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2377.16</t>
+          <t>3217.85</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2464.48</t>
+          <t>3202.70</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1981.26</t>
+          <t>2766.16</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1993.78</t>
+          <t>2644.38</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1459.75</t>
+          <t>2043.54</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1451.71</t>
+          <t>2030.58</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1453.82</t>
+          <t>2071.46</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1448.05</t>
+          <t>2077.02</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2374.81</t>
+          <t>3241.05</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2472.30</t>
+          <t>3226.18</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1978.07</t>
+          <t>2789.81</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2003.59</t>
+          <t>2661.18</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1468.53</t>
+          <t>2059.33</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1460.34</t>
+          <t>2046.36</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1462.91</t>
+          <t>2087.65</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1456.83</t>
+          <t>2093.00</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2373.66</t>
+          <t>3261.53</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2481.28</t>
+          <t>3242.78</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1978.30</t>
+          <t>2810.93</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2012.70</t>
+          <t>2676.15</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1476.95</t>
+          <t>2073.35</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1468.52</t>
+          <t>2060.37</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1471.26</t>
+          <t>2102.10</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1465.14</t>
+          <t>2107.28</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2373.57</t>
+          <t>3280.42</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2489.77</t>
+          <t>3261.70</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1979.34</t>
+          <t>2830.46</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2021.35</t>
+          <t>2690.31</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1485.00</t>
+          <t>2086.65</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1476.58</t>
+          <t>2073.66</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1479.41</t>
+          <t>2115.82</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1473.35</t>
+          <t>2120.86</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2379.35</t>
+          <t>3303.28</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2503.35</t>
+          <t>3289.36</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1984.76</t>
+          <t>2854.83</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2034.19</t>
+          <t>2709.18</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1497.55</t>
+          <t>2105.31</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1489.17</t>
+          <t>2092.35</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1491.96</t>
+          <t>2133.94</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1485.91</t>
+          <t>2138.84</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2452.73</t>
+          <t>3391.43</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2585.94</t>
+          <t>3377.56</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2049.23</t>
+          <t>2928.43</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2085.79</t>
+          <t>2761.74</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1565.34</t>
+          <t>2183.17</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1556.91</t>
+          <t>2170.21</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1559.77</t>
+          <t>2186.01</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1553.74</t>
+          <t>2204.08</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2933.58</t>
+          <t>3801.55</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3024.45</t>
+          <t>3740.79</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2390.62</t>
+          <t>3308.54</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2450.91</t>
+          <t>3111.22</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1855.89</t>
+          <t>2421.40</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1844.22</t>
+          <t>2396.75</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1958.00</t>
+          <t>2621.54</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1961.44</t>
+          <t>2626.42</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2166.38</t>
+          <t>2749.21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2145.88</t>
+          <t>2684.30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>681.06</t>
+          <t>1531.47</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1756.30</t>
+          <t>2222.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1339.62</t>
+          <t>1742.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1331.89</t>
+          <t>1730.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1413.52</t>
+          <t>1792.03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1422.42</t>
+          <t>1789.37</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2421.59</t>
+          <t>3163.03</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2335.32</t>
+          <t>3063.27</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2172.34</t>
+          <t>2684.17</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1944.13</t>
+          <t>2474.55</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1426.41</t>
+          <t>1858.62</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1416.42</t>
+          <t>1846.47</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1510.82</t>
+          <t>1908.61</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1509.81</t>
+          <t>1936.29</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2372.58</t>
+          <t>3160.15</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2299.37</t>
+          <t>3069.13</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2083.47</t>
+          <t>2662.91</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1918.82</t>
+          <t>2475.26</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1407.30</t>
+          <t>1856.16</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1397.02</t>
+          <t>1844.40</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1487.33</t>
+          <t>1899.07</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1481.90</t>
+          <t>1925.61</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2364.77</t>
+          <t>3194.18</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2295.45</t>
+          <t>3110.04</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2044.64</t>
+          <t>2685.40</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1923.20</t>
+          <t>2499.13</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1412.38</t>
+          <t>1877.78</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1402.07</t>
+          <t>1865.75</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1492.32</t>
+          <t>1940.19</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1484.56</t>
+          <t>1946.84</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2363.43</t>
+          <t>3217.88</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2296.71</t>
+          <t>3136.88</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2043.08</t>
+          <t>2717.26</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1929.51</t>
+          <t>2526.37</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1419.99</t>
+          <t>1899.30</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1409.66</t>
+          <t>1887.49</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1498.50</t>
+          <t>1960.93</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1490.62</t>
+          <t>1967.44</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2363.40</t>
+          <t>3237.95</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2299.13</t>
+          <t>3158.98</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2047.58</t>
+          <t>2739.99</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1936.21</t>
+          <t>2543.81</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1426.96</t>
+          <t>1915.12</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1416.59</t>
+          <t>1903.83</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1504.45</t>
+          <t>1976.28</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1496.53</t>
+          <t>1982.68</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2364.41</t>
+          <t>3256.74</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2302.67</t>
+          <t>3178.73</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2052.61</t>
+          <t>2766.06</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1942.90</t>
+          <t>2563.33</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1433.91</t>
+          <t>1934.10</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1423.55</t>
+          <t>1922.91</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1510.61</t>
+          <t>1994.60</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1502.71</t>
+          <t>1999.93</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2370.70</t>
+          <t>3279.93</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2310.29</t>
+          <t>3202.82</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2062.58</t>
+          <t>2795.55</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1954.27</t>
+          <t>2589.21</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1446.07</t>
+          <t>1955.57</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1435.72</t>
+          <t>1944.31</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1522.00</t>
+          <t>2016.17</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1514.25</t>
+          <t>2022.34</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2438.98</t>
+          <t>3388.38</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2366.29</t>
+          <t>3303.17</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2129.89</t>
+          <t>2874.45</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2005.95</t>
+          <t>2645.27</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1514.63</t>
+          <t>2041.44</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1504.78</t>
+          <t>2030.72</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1588.57</t>
+          <t>2077.53</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1582.78</t>
+          <t>2093.39</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2834.29</t>
+          <t>3850.91</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2785.78</t>
+          <t>3740.53</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2482.40</t>
+          <t>3307.04</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2370.35</t>
+          <t>3023.63</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1789.07</t>
+          <t>2297.65</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1769.66</t>
+          <t>2275.94</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1975.11</t>
+          <t>2542.07</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1970.87</t>
+          <t>2548.60</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2275.81</t>
+          <t>2913.93</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2127.07</t>
+          <t>2870.45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>764.91</t>
+          <t>1312.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1763.81</t>
+          <t>2407.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1410.23</t>
+          <t>1908.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1402.95</t>
+          <t>1894.21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1469.13</t>
+          <t>1967.33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1492.25</t>
+          <t>1963.04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2566.33</t>
+          <t>3299.22</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2363.93</t>
+          <t>3207.52</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2283.14</t>
+          <t>2808.81</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1949.64</t>
+          <t>2652.23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1466.06</t>
+          <t>2023.41</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1456.43</t>
+          <t>2008.80</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1570.06</t>
+          <t>2083.49</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1591.59</t>
+          <t>2109.14</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2518.29</t>
+          <t>3288.83</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2298.93</t>
+          <t>3210.76</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2074.93</t>
+          <t>2788.33</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1931.33</t>
+          <t>2645.81</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1448.68</t>
+          <t>2015.20</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1439.62</t>
+          <t>2000.60</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1548.19</t>
+          <t>2069.17</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1542.28</t>
+          <t>2096.13</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2509.10</t>
+          <t>3312.70</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2308.48</t>
+          <t>3239.98</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2063.12</t>
+          <t>2814.47</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1941.69</t>
+          <t>2668.08</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1455.38</t>
+          <t>2032.01</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1446.32</t>
+          <t>2017.37</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1552.03</t>
+          <t>2104.35</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1544.84</t>
+          <t>2110.86</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2506.20</t>
+          <t>3338.86</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2320.68</t>
+          <t>3268.08</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2066.09</t>
+          <t>2841.46</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1941.55</t>
+          <t>2687.03</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1464.32</t>
+          <t>2049.28</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1455.25</t>
+          <t>2034.62</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1556.83</t>
+          <t>2120.90</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1549.58</t>
+          <t>2127.12</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2504.66</t>
+          <t>3362.63</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2276.31</t>
+          <t>3292.96</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2076.03</t>
+          <t>2865.68</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1940.93</t>
+          <t>2701.08</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1472.66</t>
+          <t>2064.52</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1463.60</t>
+          <t>2049.82</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1561.45</t>
+          <t>2135.52</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1554.33</t>
+          <t>2141.51</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2504.25</t>
+          <t>3384.50</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2279.39</t>
+          <t>3315.95</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2086.09</t>
+          <t>2887.88</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1941.05</t>
+          <t>2714.24</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1480.88</t>
+          <t>2078.85</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1471.82</t>
+          <t>2064.14</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1565.91</t>
+          <t>2150.07</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1559.09</t>
+          <t>2155.92</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2508.44</t>
+          <t>3410.27</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2286.52</t>
+          <t>3343.00</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2097.16</t>
+          <t>2911.60</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1945.37</t>
+          <t>2733.17</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1494.58</t>
+          <t>2098.96</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1485.53</t>
+          <t>2084.27</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1574.68</t>
+          <t>2170.11</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1567.95</t>
+          <t>2175.78</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2568.95</t>
+          <t>3504.50</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2344.20</t>
+          <t>3434.16</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2157.79</t>
+          <t>2991.02</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2002.03</t>
+          <t>2789.20</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1556.31</t>
+          <t>2185.32</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1547.20</t>
+          <t>2170.55</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1617.78</t>
+          <t>2234.86</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1618.00</t>
+          <t>2248.21</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2949.58</t>
+          <t>3895.81</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2730.42</t>
+          <t>3787.54</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2533.67</t>
+          <t>3379.35</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2278.17</t>
+          <t>3140.15</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1795.72</t>
+          <t>2445.50</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1777.28</t>
+          <t>2417.59</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1988.16</t>
+          <t>2690.22</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1992.94</t>
+          <t>2694.91</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2790.49</t>
+          <t>3047.51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2514.26</t>
+          <t>2898.25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>927.43</t>
+          <t>1376.15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2053.17</t>
+          <t>2421.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1611.95</t>
+          <t>1938.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1598.68</t>
+          <t>1924.83</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1770.36</t>
+          <t>2075.22</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1772.09</t>
+          <t>2070.55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3164.19</t>
+          <t>3420.24</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2854.39</t>
+          <t>3256.29</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2640.38</t>
+          <t>2961.29</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2291.70</t>
+          <t>2676.98</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1747.91</t>
+          <t>2047.96</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1730.35</t>
+          <t>2035.12</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1889.23</t>
+          <t>2185.78</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1888.80</t>
+          <t>2221.87</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3126.33</t>
+          <t>3395.73</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2857.41</t>
+          <t>3276.99</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2563.70</t>
+          <t>2938.79</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2279.48</t>
+          <t>2661.12</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1751.59</t>
+          <t>2041.62</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1740.49</t>
+          <t>2028.84</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1868.98</t>
+          <t>2163.73</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1870.73</t>
+          <t>2195.34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3130.54</t>
+          <t>3409.46</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2872.96</t>
+          <t>3297.69</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2564.70</t>
+          <t>2955.46</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2297.56</t>
+          <t>2686.20</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1761.83</t>
+          <t>2059.19</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1752.81</t>
+          <t>2046.39</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1875.04</t>
+          <t>2191.84</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1869.85</t>
+          <t>2198.13</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3132.85</t>
+          <t>3435.74</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2871.60</t>
+          <t>3318.55</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2583.93</t>
+          <t>2978.51</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2309.66</t>
+          <t>2705.77</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1762.37</t>
+          <t>2076.89</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1757.06</t>
+          <t>2064.06</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1897.71</t>
+          <t>2201.79</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1891.61</t>
+          <t>2207.76</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3137.14</t>
+          <t>3463.85</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2881.32</t>
+          <t>3337.17</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2596.14</t>
+          <t>3001.43</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2320.36</t>
+          <t>2718.83</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1761.28</t>
+          <t>2091.81</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1754.34</t>
+          <t>2077.27</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1909.43</t>
+          <t>2213.50</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1902.95</t>
+          <t>2216.34</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3143.88</t>
+          <t>3491.70</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2892.98</t>
+          <t>3354.46</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2611.63</t>
+          <t>3022.44</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2331.44</t>
+          <t>2731.38</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1770.32</t>
+          <t>2104.78</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1761.13</t>
+          <t>2091.80</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1923.84</t>
+          <t>2228.71</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1916.95</t>
+          <t>2236.39</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3156.30</t>
+          <t>3518.65</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2909.56</t>
+          <t>3376.01</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2629.05</t>
+          <t>3048.08</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2346.86</t>
+          <t>2748.56</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1783.88</t>
+          <t>2126.33</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1774.79</t>
+          <t>2111.81</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1939.58</t>
+          <t>2248.96</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1932.59</t>
+          <t>2256.44</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3252.28</t>
+          <t>3628.81</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2989.17</t>
+          <t>3466.85</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2702.70</t>
+          <t>3122.38</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2401.43</t>
+          <t>2802.37</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1854.08</t>
+          <t>2220.46</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1844.86</t>
+          <t>2206.11</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2020.52</t>
+          <t>2296.32</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2013.70</t>
+          <t>2315.16</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3871.30</t>
+          <t>4170.68</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3481.73</t>
+          <t>3898.39</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3236.51</t>
+          <t>3638.67</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2854.07</t>
+          <t>3246.23</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2176.28</t>
+          <t>2502.32</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2160.74</t>
+          <t>2476.12</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2506.41</t>
+          <t>2825.69</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2517.53</t>
+          <t>2837.08</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2891.63</t>
+          <t>3125.15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2410.43</t>
+          <t>2901.80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>772.41</t>
+          <t>928.43</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1879.18</t>
+          <t>2426.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1485.05</t>
+          <t>1967.56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1476.29</t>
+          <t>1955.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1866.66</t>
+          <t>2093.69</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1851.21</t>
+          <t>2075.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3310.54</t>
+          <t>3555.41</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2636.14</t>
+          <t>3275.05</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2692.34</t>
+          <t>2987.47</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2099.66</t>
+          <t>2671.51</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1575.80</t>
+          <t>2087.99</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1564.68</t>
+          <t>2075.05</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1984.23</t>
+          <t>2224.12</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1974.87</t>
+          <t>2254.22</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3299.96</t>
+          <t>3545.03</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2786.97</t>
+          <t>3263.22</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2659.43</t>
+          <t>3001.98</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2082.07</t>
+          <t>2659.35</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1566.59</t>
+          <t>2086.76</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1556.89</t>
+          <t>2072.14</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2038.92</t>
+          <t>2211.36</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2052.28</t>
+          <t>2244.91</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3328.36</t>
+          <t>3569.33</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2805.98</t>
+          <t>3292.15</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2680.63</t>
+          <t>3016.58</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2266.20</t>
+          <t>2674.99</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1569.53</t>
+          <t>2103.48</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1561.38</t>
+          <t>2090.00</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2095.11</t>
+          <t>2254.36</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2084.82</t>
+          <t>2260.60</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3341.97</t>
+          <t>3593.00</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2820.03</t>
+          <t>3336.23</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2696.92</t>
+          <t>3041.16</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2275.92</t>
+          <t>2692.93</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1753.62</t>
+          <t>2119.13</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1741.72</t>
+          <t>2104.29</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2102.31</t>
+          <t>2270.91</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2091.97</t>
+          <t>2276.91</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3351.50</t>
+          <t>3614.07</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2834.43</t>
+          <t>3360.84</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2721.72</t>
+          <t>3064.59</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2286.61</t>
+          <t>2708.90</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1763.22</t>
+          <t>2132.52</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1751.26</t>
+          <t>2117.86</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2108.65</t>
+          <t>2287.87</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2098.51</t>
+          <t>2293.72</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3377.10</t>
+          <t>3634.02</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2847.90</t>
+          <t>3384.03</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2734.90</t>
+          <t>3084.67</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2297.34</t>
+          <t>2722.82</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1773.84</t>
+          <t>2137.71</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1761.84</t>
+          <t>2124.57</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2114.74</t>
+          <t>2300.67</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2104.34</t>
+          <t>2309.55</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3396.79</t>
+          <t>3657.69</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2866.09</t>
+          <t>3409.11</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2761.37</t>
+          <t>3111.00</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2312.68</t>
+          <t>2742.48</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1789.90</t>
+          <t>2155.51</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1777.93</t>
+          <t>2142.43</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2125.27</t>
+          <t>2320.72</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2114.77</t>
+          <t>2329.46</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3495.20</t>
+          <t>3757.51</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2961.33</t>
+          <t>3503.78</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2840.41</t>
+          <t>3197.93</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2371.33</t>
+          <t>2794.36</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1871.26</t>
+          <t>2237.81</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1859.31</t>
+          <t>2221.14</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2174.34</t>
+          <t>2381.94</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2163.94</t>
+          <t>2396.11</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4061.42</t>
+          <t>4309.31</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3224.61</t>
+          <t>3980.92</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3357.41</t>
+          <t>3757.77</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2564.58</t>
+          <t>3244.89</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1952.82</t>
+          <t>2513.79</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1934.07</t>
+          <t>2487.92</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2646.17</t>
+          <t>2980.58</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2654.02</t>
+          <t>2990.25</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2592.18</t>
+          <t>3107.39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2180.13</t>
+          <t>2817.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>380.78</t>
+          <t>586.29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1814.29</t>
+          <t>2359.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1522.32</t>
+          <t>1839.39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1512.91</t>
+          <t>1826.04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1787.78</t>
+          <t>2078.88</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1784.38</t>
+          <t>2064.70</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2670.90</t>
+          <t>3532.86</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2499.37</t>
+          <t>3211.98</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2450.14</t>
+          <t>2958.21</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1587.59</t>
+          <t>2591.87</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1614.16</t>
+          <t>2044.77</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1602.48</t>
+          <t>2031.99</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1881.99</t>
+          <t>2214.90</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1876.56</t>
+          <t>2242.27</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2647.64</t>
+          <t>3523.93</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2495.91</t>
+          <t>3211.38</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2410.47</t>
+          <t>2963.79</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2030.59</t>
+          <t>2592.24</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1602.62</t>
+          <t>2041.45</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1590.96</t>
+          <t>2028.65</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1865.88</t>
+          <t>2210.61</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1858.25</t>
+          <t>2240.22</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2652.14</t>
+          <t>3543.07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2507.60</t>
+          <t>3229.29</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2186.08</t>
+          <t>2996.16</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2035.31</t>
+          <t>2624.98</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1568.52</t>
+          <t>2057.45</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1558.01</t>
+          <t>2044.62</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1874.61</t>
+          <t>2250.71</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1864.94</t>
+          <t>2256.54</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2652.53</t>
+          <t>3565.88</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2518.03</t>
+          <t>3249.62</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2190.90</t>
+          <t>3014.83</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2042.78</t>
+          <t>2647.37</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1576.04</t>
+          <t>2072.78</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1565.49</t>
+          <t>2059.93</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1847.88</t>
+          <t>2261.71</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1838.58</t>
+          <t>2266.10</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2651.09</t>
+          <t>3586.45</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2527.06</t>
+          <t>3269.66</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2185.46</t>
+          <t>3037.03</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2049.82</t>
+          <t>2667.24</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1582.62</t>
+          <t>2086.09</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1572.07</t>
+          <t>2073.23</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1842.93</t>
+          <t>2274.01</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1833.28</t>
+          <t>2279.44</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2650.31</t>
+          <t>3606.64</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2536.03</t>
+          <t>3289.13</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2194.67</t>
+          <t>3054.19</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2057.18</t>
+          <t>2683.29</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1589.33</t>
+          <t>2098.60</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1578.82</t>
+          <t>2085.73</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1687.93</t>
+          <t>2288.08</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1679.17</t>
+          <t>2292.94</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2656.34</t>
+          <t>3627.77</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2551.99</t>
+          <t>3311.62</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2208.38</t>
+          <t>3070.33</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2071.16</t>
+          <t>2698.14</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1602.61</t>
+          <t>2115.86</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1592.18</t>
+          <t>2103.01</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1698.33</t>
+          <t>2307.34</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1689.58</t>
+          <t>2313.38</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2740.06</t>
+          <t>3714.33</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2645.24</t>
+          <t>3396.93</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2281.19</t>
+          <t>3155.26</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2133.59</t>
+          <t>2740.69</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1681.24</t>
+          <t>2190.09</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1671.07</t>
+          <t>2177.22</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1759.58</t>
+          <t>2373.55</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1750.90</t>
+          <t>2391.59</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3326.23</t>
+          <t>4306.63</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2601.52</t>
+          <t>3844.95</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2723.32</t>
+          <t>3695.86</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2003.12</t>
+          <t>3096.02</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1531.65</t>
+          <t>2457.23</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1509.67</t>
+          <t>2428.68</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2157.52</t>
+          <t>2976.07</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2159.50</t>
+          <t>2982.04</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>766.80</t>
+          <t>2749.21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>103.22</t>
+          <t>2684.30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>276.94</t>
+          <t>503.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>102.82</t>
+          <t>2222.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>112.21</t>
+          <t>1742.37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>112.05</t>
+          <t>1730.10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1090.01</t>
+          <t>1792.03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1062.09</t>
+          <t>1789.37</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1325.52</t>
+          <t>3163.03</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>103.08</t>
+          <t>3063.27</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1382.94</t>
+          <t>2684.17</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>102.86</t>
+          <t>2474.55</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>113.46</t>
+          <t>1858.62</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>113.33</t>
+          <t>1846.47</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1428.75</t>
+          <t>1908.61</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1429.89</t>
+          <t>1936.29</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1179.44</t>
+          <t>3160.15</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>102.85</t>
+          <t>3069.13</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>653.24</t>
+          <t>2662.91</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>2475.26</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>113.57</t>
+          <t>1856.16</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>113.45</t>
+          <t>1844.40</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1401.04</t>
+          <t>1899.07</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1313.56</t>
+          <t>1925.61</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>959.25</t>
+          <t>3194.18</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>102.31</t>
+          <t>3110.04</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>311.29</t>
+          <t>2685.40</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>102.21</t>
+          <t>2499.13</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>112.88</t>
+          <t>1877.78</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>112.77</t>
+          <t>1865.75</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1204.80</t>
+          <t>1940.19</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1112.78</t>
+          <t>1946.84</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>731.57</t>
+          <t>3217.88</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>101.74</t>
+          <t>3136.88</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>102.88</t>
+          <t>2717.26</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>101.68</t>
+          <t>2526.37</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>111.97</t>
+          <t>1899.30</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>111.88</t>
+          <t>1887.49</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>985.67</t>
+          <t>1960.93</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>896.57</t>
+          <t>1967.44</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>509.03</t>
+          <t>3237.95</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>101.23</t>
+          <t>3158.98</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>102.24</t>
+          <t>2739.99</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>101.19</t>
+          <t>2543.81</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>111.05</t>
+          <t>1915.12</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>110.96</t>
+          <t>1903.83</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>765.26</t>
+          <t>1976.28</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>678.85</t>
+          <t>1982.68</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>293.81</t>
+          <t>3256.74</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>100.75</t>
+          <t>3178.73</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>101.64</t>
+          <t>2766.06</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>100.73</t>
+          <t>2563.33</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>110.08</t>
+          <t>1934.10</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>1922.91</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>551.43</t>
+          <t>1994.60</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>465.64</t>
+          <t>1999.93</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>111.92</t>
+          <t>3279.93</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>100.14</t>
+          <t>3202.82</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>100.91</t>
+          <t>2795.55</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>100.15</t>
+          <t>2589.21</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>108.80</t>
+          <t>1955.57</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>108.73</t>
+          <t>1944.31</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>344.28</t>
+          <t>2016.17</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>264.51</t>
+          <t>2022.34</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>189.34</t>
+          <t>3388.38</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>99.01</t>
+          <t>3303.17</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>178.29</t>
+          <t>2874.45</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>2645.27</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>106.74</t>
+          <t>2041.44</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>106.70</t>
+          <t>2030.72</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>372.73</t>
+          <t>2077.53</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>319.13</t>
+          <t>2093.39</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>1818.28</t>
+          <t>3801.55</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>3740.53</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1554.33</t>
+          <t>3307.04</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>3023.63</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>103.22</t>
+          <t>2297.65</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>103.21</t>
+          <t>2275.94</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1297.65</t>
+          <t>2542.07</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1299.80</t>
+          <t>2548.60</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2891.63</t>
+          <t>3125.15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2514.26</t>
+          <t>2926.47</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>927.43</t>
+          <t>1531.47</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2053.17</t>
+          <t>2442.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1611.95</t>
+          <t>1967.56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1598.68</t>
+          <t>1955.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1866.66</t>
+          <t>2093.69</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1851.21</t>
+          <t>2075.02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3310.54</t>
+          <t>3555.41</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2854.39</t>
+          <t>3301.91</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2692.34</t>
+          <t>2987.47</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2291.70</t>
+          <t>2701.17</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1747.91</t>
+          <t>2087.99</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1730.35</t>
+          <t>2075.05</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1984.23</t>
+          <t>2224.12</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1974.87</t>
+          <t>2254.22</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3299.96</t>
+          <t>3545.03</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2857.41</t>
+          <t>3308.52</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2659.43</t>
+          <t>3001.98</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2279.48</t>
+          <t>2696.43</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1751.59</t>
+          <t>2086.76</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1740.49</t>
+          <t>2072.14</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2038.92</t>
+          <t>2211.36</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2052.28</t>
+          <t>2244.91</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3328.36</t>
+          <t>3569.33</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2872.96</t>
+          <t>3335.73</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2680.63</t>
+          <t>3016.58</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2297.56</t>
+          <t>2696.37</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1761.83</t>
+          <t>2103.48</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1752.81</t>
+          <t>2090.00</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2095.11</t>
+          <t>2254.36</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2084.82</t>
+          <t>2260.60</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3341.97</t>
+          <t>3593.00</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2871.60</t>
+          <t>3360.82</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2696.92</t>
+          <t>3041.16</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2309.66</t>
+          <t>2713.52</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1762.37</t>
+          <t>2119.13</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1757.06</t>
+          <t>2104.29</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2102.31</t>
+          <t>2270.91</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2091.97</t>
+          <t>2276.91</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3351.50</t>
+          <t>3614.07</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2881.32</t>
+          <t>3381.14</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2721.72</t>
+          <t>3064.59</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2320.36</t>
+          <t>2727.53</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1763.22</t>
+          <t>2132.52</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1754.34</t>
+          <t>2117.86</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2108.65</t>
+          <t>2287.87</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2098.51</t>
+          <t>2293.72</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3377.10</t>
+          <t>3634.02</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2892.98</t>
+          <t>3400.38</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2734.90</t>
+          <t>3084.67</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2331.44</t>
+          <t>2744.72</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1773.84</t>
+          <t>2137.71</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1761.84</t>
+          <t>2124.57</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2114.74</t>
+          <t>2300.67</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2104.34</t>
+          <t>2309.55</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3396.79</t>
+          <t>3657.69</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2909.56</t>
+          <t>3425.79</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2761.37</t>
+          <t>3111.00</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2346.86</t>
+          <t>2769.70</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1789.90</t>
+          <t>2155.51</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1777.93</t>
+          <t>2142.43</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2125.27</t>
+          <t>2320.72</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2114.77</t>
+          <t>2329.46</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3495.20</t>
+          <t>3757.51</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2989.17</t>
+          <t>3538.96</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2840.41</t>
+          <t>3197.93</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2401.43</t>
+          <t>2835.34</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1871.26</t>
+          <t>2237.81</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1859.31</t>
+          <t>2221.73</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2174.34</t>
+          <t>2381.94</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2163.94</t>
+          <t>2396.11</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4061.42</t>
+          <t>4339.82</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3481.73</t>
+          <t>4096.79</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3357.41</t>
+          <t>3757.77</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2854.07</t>
+          <t>3310.19</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2176.28</t>
+          <t>2541.74</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2160.74</t>
+          <t>2513.55</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2684.88</t>
+          <t>2980.58</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2688.76</t>
+          <t>2990.25</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_HonoluluTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_HonoluluTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3056.62</t>
+          <t>3182.41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2828.91</t>
+          <t>2430.56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>503.54</t>
+          <t>895.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2327.37</t>
+          <t>1947.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1853.98</t>
+          <t>1508.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1840.12</t>
+          <t>1499.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2050.33</t>
+          <t>2145.20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2047.10</t>
+          <t>2127.32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3498.77</t>
+          <t>3589.66</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3234.31</t>
+          <t>2787.42</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2940.92</t>
+          <t>3097.55</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2599.63</t>
+          <t>2178.19</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1985.43</t>
+          <t>1619.65</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1971.00</t>
+          <t>1608.38</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2198.93</t>
+          <t>2298.21</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2228.65</t>
+          <t>2308.57</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3483.55</t>
+          <t>3547.24</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3239.98</t>
+          <t>2757.03</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2945.49</t>
+          <t>3061.71</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2599.87</t>
+          <t>2157.42</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1980.73</t>
+          <t>1607.53</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1966.34</t>
+          <t>1596.26</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2193.92</t>
+          <t>2294.25</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2224.60</t>
+          <t>2319.46</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3502.55</t>
+          <t>3555.49</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3266.45</t>
+          <t>2763.95</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2962.22</t>
+          <t>3050.20</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2618.50</t>
+          <t>2175.61</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2000.94</t>
+          <t>1705.06</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1986.51</t>
+          <t>1689.59</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2234.53</t>
+          <t>2303.44</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2240.40</t>
+          <t>2336.03</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3517.62</t>
+          <t>3565.22</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3290.84</t>
+          <t>2771.11</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2983.58</t>
+          <t>3061.94</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2638.33</t>
+          <t>2167.89</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2022.59</t>
+          <t>1707.04</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2008.35</t>
+          <t>1691.32</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2251.57</t>
+          <t>2299.25</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2257.66</t>
+          <t>2332.29</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3536.74</t>
+          <t>3576.71</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3305.50</t>
+          <t>2777.35</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>3007.09</t>
+          <t>3060.82</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2667.90</t>
+          <t>2176.14</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2054.44</t>
+          <t>1712.50</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2037.95</t>
+          <t>1696.60</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2267.75</t>
+          <t>2294.15</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2273.23</t>
+          <t>2327.67</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3556.50</t>
+          <t>3584.27</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3324.93</t>
+          <t>2765.54</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>3025.77</t>
+          <t>3065.71</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2682.33</t>
+          <t>2170.02</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2074.38</t>
+          <t>1718.57</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2057.94</t>
+          <t>1702.50</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2280.24</t>
+          <t>2325.73</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2289.38</t>
+          <t>2335.82</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3575.89</t>
+          <t>3597.66</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3347.43</t>
+          <t>2776.98</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3046.23</t>
+          <t>3077.96</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2703.01</t>
+          <t>2180.28</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2095.77</t>
+          <t>1729.79</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2081.13</t>
+          <t>1713.62</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2298.08</t>
+          <t>2334.16</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2303.32</t>
+          <t>2346.74</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3667.55</t>
+          <t>3675.33</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3445.12</t>
+          <t>2853.86</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3104.60</t>
+          <t>3136.46</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2762.86</t>
+          <t>2226.50</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2177.66</t>
+          <t>1794.05</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2163.09</t>
+          <t>1777.16</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2335.32</t>
+          <t>2374.66</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2352.79</t>
+          <t>2393.89</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4268.81</t>
+          <t>4201.64</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3904.42</t>
+          <t>3367.37</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3662.04</t>
+          <t>3676.74</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3183.23</t>
+          <t>2618.82</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2496.24</t>
+          <t>2011.45</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2466.65</t>
+          <t>1987.89</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2930.21</t>
+          <t>2936.33</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2935.69</t>
+          <t>2950.91</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3026.82</t>
+          <t>3158.08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2870.65</t>
+          <t>2294.94</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>604.94</t>
+          <t>789.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2406.80</t>
+          <t>2156.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1912.39</t>
+          <t>1737.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1898.23</t>
+          <t>1725.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2055.24</t>
+          <t>2153.55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2048.31</t>
+          <t>2153.02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3433.80</t>
+          <t>3569.20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3238.24</t>
+          <t>2594.52</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2973.19</t>
+          <t>3034.66</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2644.36</t>
+          <t>2123.65</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2064.50</t>
+          <t>1837.75</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2049.24</t>
+          <t>1820.74</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2189.37</t>
+          <t>2289.82</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2221.30</t>
+          <t>2319.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3419.47</t>
+          <t>3549.52</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3242.48</t>
+          <t>2493.76</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2967.43</t>
+          <t>2997.74</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2637.32</t>
+          <t>1977.35</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2051.00</t>
+          <t>1581.76</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2037.85</t>
+          <t>1557.89</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2173.08</t>
+          <t>2273.62</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2208.15</t>
+          <t>2304.37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3441.02</t>
+          <t>3562.98</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3275.12</t>
+          <t>2475.37</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2978.65</t>
+          <t>3008.95</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2653.59</t>
+          <t>1969.35</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2068.57</t>
+          <t>1573.88</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2053.64</t>
+          <t>1565.00</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2205.82</t>
+          <t>2280.26</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2215.42</t>
+          <t>2312.74</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3462.47</t>
+          <t>3576.65</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3304.20</t>
+          <t>2469.99</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2990.61</t>
+          <t>3043.08</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2667.57</t>
+          <t>1996.23</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2080.43</t>
+          <t>1818.13</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2063.45</t>
+          <t>1806.00</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2216.86</t>
+          <t>2290.87</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2223.68</t>
+          <t>2323.35</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3482.79</t>
+          <t>3597.35</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3353.44</t>
+          <t>2583.06</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3002.62</t>
+          <t>3057.39</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2668.08</t>
+          <t>2350.13</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2093.00</t>
+          <t>1820.12</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2073.71</t>
+          <t>1808.00</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2223.32</t>
+          <t>2289.87</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2231.52</t>
+          <t>2323.96</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3503.21</t>
+          <t>3611.92</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3376.78</t>
+          <t>2467.63</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>3015.95</t>
+          <t>3071.26</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2676.84</t>
+          <t>2065.70</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2105.07</t>
+          <t>1828.30</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2085.49</t>
+          <t>1816.15</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2234.01</t>
+          <t>2327.92</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2239.79</t>
+          <t>2334.60</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3527.74</t>
+          <t>3640.10</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3403.13</t>
+          <t>2476.19</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>3034.06</t>
+          <t>3070.88</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2694.69</t>
+          <t>2069.52</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2121.62</t>
+          <t>1842.08</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2102.20</t>
+          <t>1829.91</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2247.37</t>
+          <t>2339.66</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2254.34</t>
+          <t>2346.38</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3627.49</t>
+          <t>3724.53</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3510.81</t>
+          <t>2559.60</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3094.81</t>
+          <t>3120.68</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2750.74</t>
+          <t>2112.33</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2199.28</t>
+          <t>1919.95</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2184.12</t>
+          <t>1907.18</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2297.11</t>
+          <t>2374.64</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2316.30</t>
+          <t>2393.33</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4288.90</t>
+          <t>4262.32</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3963.66</t>
+          <t>3043.74</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3627.92</t>
+          <t>3643.54</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3194.08</t>
+          <t>2351.76</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2480.28</t>
+          <t>1885.67</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2453.84</t>
+          <t>1868.01</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2881.88</t>
+          <t>2932.11</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2885.33</t>
+          <t>2936.02</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3067.59</t>
+          <t>3035.56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2926.47</t>
+          <t>2620.81</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>642.63</t>
+          <t>591.38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2442.07</t>
+          <t>2167.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1948.90</t>
+          <t>1802.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1936.10</t>
+          <t>1746.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2041.44</t>
+          <t>2032.11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2018.54</t>
+          <t>2026.57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3480.92</t>
+          <t>3484.77</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3301.91</t>
+          <t>3068.39</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2935.48</t>
+          <t>2851.54</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2689.03</t>
+          <t>2477.81</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2063.48</t>
+          <t>1802.77</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2048.84</t>
+          <t>1789.51</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2176.20</t>
+          <t>2142.94</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2201.85</t>
+          <t>2168.59</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3465.04</t>
+          <t>3469.82</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3308.52</t>
+          <t>3097.01</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2939.84</t>
+          <t>2833.20</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2692.14</t>
+          <t>2498.41</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2071.82</t>
+          <t>1840.89</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2058.85</t>
+          <t>1815.52</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2148.20</t>
+          <t>2132.65</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2178.58</t>
+          <t>2160.31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3511.21</t>
+          <t>3507.78</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3335.73</t>
+          <t>3146.34</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2950.78</t>
+          <t>2947.37</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2696.37</t>
+          <t>2736.23</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2083.69</t>
+          <t>2100.72</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2082.45</t>
+          <t>2084.53</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2178.56</t>
+          <t>2143.45</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2185.45</t>
+          <t>2171.96</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3535.10</t>
+          <t>3526.26</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3360.82</t>
+          <t>3416.83</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2966.59</t>
+          <t>2971.18</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2713.52</t>
+          <t>2746.21</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2095.39</t>
+          <t>2109.20</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2078.99</t>
+          <t>2094.13</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2205.32</t>
+          <t>2202.88</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2211.17</t>
+          <t>2227.34</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3553.41</t>
+          <t>3543.49</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3381.14</t>
+          <t>3434.79</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>3005.17</t>
+          <t>2983.62</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2726.14</t>
+          <t>2758.17</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2112.45</t>
+          <t>2118.99</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2095.95</t>
+          <t>2103.88</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2211.72</t>
+          <t>2210.69</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2217.82</t>
+          <t>2235.03</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3569.33</t>
+          <t>3560.25</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3400.38</t>
+          <t>3447.73</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>3032.97</t>
+          <t>2998.00</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2735.56</t>
+          <t>2765.18</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2129.92</t>
+          <t>2128.51</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2114.06</t>
+          <t>2113.18</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2235.74</t>
+          <t>2238.59</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2236.84</t>
+          <t>2244.25</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3592.12</t>
+          <t>3582.15</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3425.79</t>
+          <t>3467.61</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>3056.66</t>
+          <t>3017.54</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2757.77</t>
+          <t>2780.58</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2152.93</t>
+          <t>2145.85</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2136.25</t>
+          <t>2130.44</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2253.38</t>
+          <t>2255.40</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2259.05</t>
+          <t>2261.86</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3708.61</t>
+          <t>3675.00</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3538.96</t>
+          <t>3568.58</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3137.74</t>
+          <t>3102.54</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2817.24</t>
+          <t>2843.20</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2236.61</t>
+          <t>2236.85</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2221.73</t>
+          <t>2221.42</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2308.38</t>
+          <t>2326.36</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2329.01</t>
+          <t>2336.35</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4339.82</t>
+          <t>4228.75</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4096.79</t>
+          <t>3928.11</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3657.56</t>
+          <t>3536.74</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3274.20</t>
+          <t>3192.47</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2541.74</t>
+          <t>2500.92</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2513.55</t>
+          <t>2473.69</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2894.13</t>
+          <t>2821.08</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2904.26</t>
+          <t>2825.61</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3018.59</t>
+          <t>2819.09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2902.98</t>
+          <t>2714.20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>669.04</t>
+          <t>411.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2436.11</t>
+          <t>2181.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1956.15</t>
+          <t>1710.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1943.93</t>
+          <t>1701.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2009.07</t>
+          <t>1779.59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2007.07</t>
+          <t>1777.19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3401.17</t>
+          <t>3246.93</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3261.65</t>
+          <t>3110.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2894.25</t>
+          <t>2692.27</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2668.67</t>
+          <t>2669.23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2062.28</t>
+          <t>2099.52</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2049.29</t>
+          <t>2085.51</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2116.26</t>
+          <t>1916.08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2143.75</t>
+          <t>1938.53</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3387.34</t>
+          <t>3229.29</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3258.25</t>
+          <t>3098.42</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2910.12</t>
+          <t>2638.39</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2696.43</t>
+          <t>2619.68</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2047.14</t>
+          <t>2092.89</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2034.22</t>
+          <t>2078.87</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2109.19</t>
+          <t>2170.50</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2135.35</t>
+          <t>2199.86</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3404.60</t>
+          <t>3244.96</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3280.69</t>
+          <t>3114.88</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2929.20</t>
+          <t>2862.53</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2695.93</t>
+          <t>2442.10</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2059.74</t>
+          <t>2106.73</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2046.48</t>
+          <t>2092.69</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2160.47</t>
+          <t>2181.82</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2163.87</t>
+          <t>2211.00</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3423.62</t>
+          <t>3264.53</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3298.78</t>
+          <t>3131.12</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2952.46</t>
+          <t>2696.45</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2709.70</t>
+          <t>2455.03</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2074.81</t>
+          <t>2120.90</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2060.11</t>
+          <t>1997.54</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2158.01</t>
+          <t>2195.05</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2173.22</t>
+          <t>2225.08</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3440.04</t>
+          <t>3278.77</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3315.24</t>
+          <t>3144.85</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2973.54</t>
+          <t>2692.34</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2727.53</t>
+          <t>2467.75</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2090.17</t>
+          <t>1864.42</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2075.40</t>
+          <t>1851.41</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2171.14</t>
+          <t>2206.82</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2176.85</t>
+          <t>2237.76</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3455.49</t>
+          <t>3293.14</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3333.14</t>
+          <t>3159.01</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2992.95</t>
+          <t>2709.87</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2744.72</t>
+          <t>2477.99</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2104.82</t>
+          <t>1874.70</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2090.03</t>
+          <t>1861.36</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2183.82</t>
+          <t>2245.92</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2189.42</t>
+          <t>2249.92</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3476.01</t>
+          <t>3314.76</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3357.44</t>
+          <t>3177.17</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>3010.25</t>
+          <t>2731.51</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2769.70</t>
+          <t>2492.97</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2125.61</t>
+          <t>1890.09</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2110.84</t>
+          <t>1876.66</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2201.13</t>
+          <t>2261.98</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2206.45</t>
+          <t>2196.79</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3568.73</t>
+          <t>3413.43</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3445.98</t>
+          <t>3270.69</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3084.56</t>
+          <t>2808.56</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2835.34</t>
+          <t>2545.59</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2208.81</t>
+          <t>1966.00</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2197.75</t>
+          <t>1952.76</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2255.85</t>
+          <t>2054.40</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2273.27</t>
+          <t>2063.98</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4078.65</t>
+          <t>3948.59</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3927.76</t>
+          <t>3800.53</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3601.25</t>
+          <t>3308.96</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3310.19</t>
+          <t>2971.70</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2490.11</t>
+          <t>2273.07</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2469.99</t>
+          <t>2246.57</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2776.07</t>
+          <t>2587.97</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2788.59</t>
+          <t>2592.13</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2938.63</t>
+          <t>2638.07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2873.14</t>
+          <t>2560.74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>991.87</t>
+          <t>430.42</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2420.33</t>
+          <t>2105.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1929.10</t>
+          <t>1639.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1916.75</t>
+          <t>1631.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1965.48</t>
+          <t>1695.49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1971.37</t>
+          <t>1710.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3335.85</t>
+          <t>3019.98</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3244.22</t>
+          <t>2917.68</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2859.51</t>
+          <t>2571.85</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2701.17</t>
+          <t>2341.37</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2052.66</t>
+          <t>1751.65</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2039.87</t>
+          <t>1740.82</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2085.94</t>
+          <t>1816.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2124.40</t>
+          <t>1840.38</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3339.45</t>
+          <t>3000.70</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3241.27</t>
+          <t>2905.84</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2847.47</t>
+          <t>2496.07</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2678.28</t>
+          <t>2330.54</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2048.52</t>
+          <t>1742.32</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2036.02</t>
+          <t>1731.41</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2070.58</t>
+          <t>1802.57</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2097.15</t>
+          <t>1825.16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3374.28</t>
+          <t>3015.99</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3264.22</t>
+          <t>2922.37</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2866.81</t>
+          <t>2500.78</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2688.67</t>
+          <t>2342.65</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2045.06</t>
+          <t>1754.16</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2032.58</t>
+          <t>1743.06</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2105.09</t>
+          <t>1813.30</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2111.31</t>
+          <t>1835.78</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3390.85</t>
+          <t>3032.05</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3287.63</t>
+          <t>2939.37</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2892.42</t>
+          <t>2529.33</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2698.11</t>
+          <t>2355.33</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2061.74</t>
+          <t>1766.67</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2047.09</t>
+          <t>1755.44</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2135.41</t>
+          <t>1825.19</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2140.93</t>
+          <t>1848.22</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3393.49</t>
+          <t>3046.38</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3312.24</t>
+          <t>2954.42</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2912.51</t>
+          <t>2545.12</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2706.29</t>
+          <t>2369.08</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2089.83</t>
+          <t>1777.67</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2076.51</t>
+          <t>1766.35</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2152.19</t>
+          <t>1835.83</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2157.50</t>
+          <t>1859.65</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3410.94</t>
+          <t>3059.93</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3334.66</t>
+          <t>2968.63</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2971.80</t>
+          <t>2560.16</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2715.73</t>
+          <t>2380.50</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2102.45</t>
+          <t>1788.29</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2089.13</t>
+          <t>1776.99</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2170.86</t>
+          <t>1864.76</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2176.81</t>
+          <t>1870.85</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3435.49</t>
+          <t>3078.39</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3360.80</t>
+          <t>2987.64</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2997.74</t>
+          <t>2579.86</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2732.91</t>
+          <t>2396.90</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2125.34</t>
+          <t>1804.16</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2112.01</t>
+          <t>1792.89</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2189.89</t>
+          <t>1880.63</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2195.73</t>
+          <t>1886.62</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3527.67</t>
+          <t>3173.55</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3451.86</t>
+          <t>3081.83</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3074.30</t>
+          <t>2656.88</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2786.17</t>
+          <t>2453.17</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2203.26</t>
+          <t>1882.14</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2189.92</t>
+          <t>1870.87</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2251.20</t>
+          <t>1941.32</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2269.07</t>
+          <t>1952.75</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3978.83</t>
+          <t>3588.76</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3813.91</t>
+          <t>3487.14</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3507.43</t>
+          <t>3064.24</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3183.65</t>
+          <t>2804.94</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2450.48</t>
+          <t>2155.25</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2421.54</t>
+          <t>2132.09</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2708.90</t>
+          <t>2415.10</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2715.42</t>
+          <t>2418.78</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2879.41</t>
+          <t>2410.40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2825.34</t>
+          <t>2357.85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1115.27</t>
+          <t>574.98</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2368.72</t>
+          <t>2018.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1888.87</t>
+          <t>1540.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1876.58</t>
+          <t>1533.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1931.11</t>
+          <t>1588.20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1921.10</t>
+          <t>1603.72</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3277.77</t>
+          <t>2733.05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3180.28</t>
+          <t>2661.32</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2783.42</t>
+          <t>2479.26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2607.50</t>
+          <t>2262.80</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2002.20</t>
+          <t>1658.92</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1989.46</t>
+          <t>1648.78</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2043.83</t>
+          <t>1716.15</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2071.60</t>
+          <t>1741.85</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3276.35</t>
+          <t>2674.56</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3189.26</t>
+          <t>2610.02</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2775.97</t>
+          <t>2295.96</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2593.06</t>
+          <t>2251.09</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1999.38</t>
+          <t>1647.53</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1986.63</t>
+          <t>1637.41</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2036.60</t>
+          <t>1700.57</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2066.19</t>
+          <t>1724.63</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3308.99</t>
+          <t>2677.32</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3220.96</t>
+          <t>2614.24</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2791.36</t>
+          <t>2246.50</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2606.22</t>
+          <t>2262.87</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2016.31</t>
+          <t>1658.19</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2003.58</t>
+          <t>1648.10</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>2074.80</t>
+          <t>1709.56</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2080.23</t>
+          <t>1733.75</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3340.41</t>
+          <t>2683.20</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3250.49</t>
+          <t>2621.31</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2811.41</t>
+          <t>2238.73</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2620.14</t>
+          <t>2276.06</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2033.20</t>
+          <t>1669.82</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2020.45</t>
+          <t>1659.63</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2091.34</t>
+          <t>1720.33</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2096.58</t>
+          <t>1745.31</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3366.25</t>
+          <t>2689.07</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3276.70</t>
+          <t>2628.02</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2848.66</t>
+          <t>2245.36</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2657.51</t>
+          <t>2290.48</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2048.15</t>
+          <t>1680.13</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2035.39</t>
+          <t>1669.90</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>2106.16</t>
+          <t>1730.08</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2111.23</t>
+          <t>1745.98</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3385.90</t>
+          <t>2660.88</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3302.29</t>
+          <t>2599.84</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2871.35</t>
+          <t>2237.98</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2675.13</t>
+          <t>2301.99</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2062.21</t>
+          <t>1689.84</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2049.45</t>
+          <t>1679.55</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2120.23</t>
+          <t>1741.91</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2125.16</t>
+          <t>1745.52</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3409.71</t>
+          <t>2672.06</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3332.74</t>
+          <t>2611.60</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2898.71</t>
+          <t>2253.54</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2696.59</t>
+          <t>2311.92</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2081.18</t>
+          <t>1705.27</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2068.45</t>
+          <t>1695.01</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2138.65</t>
+          <t>1746.84</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2143.45</t>
+          <t>1750.78</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3507.39</t>
+          <t>2750.84</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3434.86</t>
+          <t>2689.95</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2976.02</t>
+          <t>2319.28</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2751.01</t>
+          <t>2374.35</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2157.63</t>
+          <t>1781.94</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2144.81</t>
+          <t>1771.83</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2192.01</t>
+          <t>1803.15</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2208.95</t>
+          <t>1808.02</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3887.67</t>
+          <t>3097.69</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3788.44</t>
+          <t>3068.11</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3386.64</t>
+          <t>2806.51</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3116.76</t>
+          <t>2672.00</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2413.33</t>
+          <t>2069.11</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2385.03</t>
+          <t>2048.04</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2684.16</t>
+          <t>2164.73</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2689.74</t>
+          <t>2160.14</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2854.77</t>
+          <t>2234.44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2850.61</t>
+          <t>2185.57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1369.24</t>
+          <t>499.83</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2409.98</t>
+          <t>1824.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1932.95</t>
+          <t>1429.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1920.38</t>
+          <t>1421.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1930.18</t>
+          <t>1471.40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1921.60</t>
+          <t>1498.43</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3224.54</t>
+          <t>2542.67</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3186.73</t>
+          <t>2470.72</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2770.93</t>
+          <t>2273.41</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2635.27</t>
+          <t>2030.06</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2038.75</t>
+          <t>1514.26</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025.80</t>
+          <t>1503.83</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2040.44</t>
+          <t>1561.04</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2068.29</t>
+          <t>1585.97</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3194.84</t>
+          <t>2444.23</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3178.58</t>
+          <t>2437.36</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2745.46</t>
+          <t>2107.37</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2626.36</t>
+          <t>2005.82</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2028.16</t>
+          <t>1484.69</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2015.23</t>
+          <t>1477.16</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2031.85</t>
+          <t>1538.13</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2061.71</t>
+          <t>1546.31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3217.85</t>
+          <t>2436.93</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3202.70</t>
+          <t>2439.42</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2766.16</t>
+          <t>2089.37</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2644.38</t>
+          <t>2008.61</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2043.54</t>
+          <t>1489.31</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2030.58</t>
+          <t>1481.76</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2071.46</t>
+          <t>1542.13</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2077.02</t>
+          <t>1557.69</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3241.05</t>
+          <t>2437.12</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3226.18</t>
+          <t>2445.22</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2789.81</t>
+          <t>2101.81</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2661.18</t>
+          <t>2013.48</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2059.33</t>
+          <t>1496.15</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2046.36</t>
+          <t>1488.56</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>2087.65</t>
+          <t>1547.82</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2093.00</t>
+          <t>1568.23</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3261.53</t>
+          <t>2438.03</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3242.78</t>
+          <t>2451.05</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2810.93</t>
+          <t>2105.25</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2676.15</t>
+          <t>2020.29</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2073.35</t>
+          <t>1502.58</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2060.37</t>
+          <t>1494.94</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>2102.10</t>
+          <t>1553.32</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2107.28</t>
+          <t>1574.35</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3280.42</t>
+          <t>2439.84</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3261.70</t>
+          <t>2457.07</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2830.46</t>
+          <t>2109.38</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2690.31</t>
+          <t>2027.46</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2086.65</t>
+          <t>1509.11</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2073.66</t>
+          <t>1501.43</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>2115.82</t>
+          <t>1575.38</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>2120.86</t>
+          <t>1580.79</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3303.28</t>
+          <t>2447.55</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3289.36</t>
+          <t>2467.27</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2854.83</t>
+          <t>2118.56</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2709.18</t>
+          <t>2039.37</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2105.31</t>
+          <t>1520.55</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2092.35</t>
+          <t>1512.87</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>2133.94</t>
+          <t>1586.41</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>2138.84</t>
+          <t>1591.81</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3391.43</t>
+          <t>2525.56</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3377.56</t>
+          <t>2533.12</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2928.43</t>
+          <t>2181.46</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2761.74</t>
+          <t>2087.03</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2183.17</t>
+          <t>1584.17</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2170.21</t>
+          <t>1576.49</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2186.01</t>
+          <t>1634.15</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2204.08</t>
+          <t>1645.60</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3801.55</t>
+          <t>2931.70</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3740.79</t>
+          <t>2944.51</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3308.54</t>
+          <t>2583.48</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3111.22</t>
+          <t>2441.72</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2421.40</t>
+          <t>1831.89</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2396.75</t>
+          <t>1815.89</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2621.54</t>
+          <t>1986.92</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2626.42</t>
+          <t>1992.31</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2749.21</t>
+          <t>2329.07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2684.30</t>
+          <t>2220.93</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1531.47</t>
+          <t>729.74</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2222.79</t>
+          <t>1842.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1742.37</t>
+          <t>1423.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1730.10</t>
+          <t>1417.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1792.03</t>
+          <t>1511.59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1789.37</t>
+          <t>1527.18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3163.03</t>
+          <t>2632.42</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3063.27</t>
+          <t>2510.58</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2684.17</t>
+          <t>2335.30</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2474.55</t>
+          <t>2020.19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1858.62</t>
+          <t>1522.23</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1846.47</t>
+          <t>1514.38</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1908.61</t>
+          <t>1618.85</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1936.29</t>
+          <t>1646.73</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3160.15</t>
+          <t>2581.08</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3069.13</t>
+          <t>2473.56</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2662.91</t>
+          <t>2218.71</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2475.26</t>
+          <t>1992.87</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1856.16</t>
+          <t>1503.96</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1844.40</t>
+          <t>1495.39</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1899.07</t>
+          <t>1594.86</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1925.61</t>
+          <t>1617.84</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3194.18</t>
+          <t>2571.89</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3110.04</t>
+          <t>2473.78</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2685.40</t>
+          <t>2201.57</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2499.13</t>
+          <t>1993.46</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1877.78</t>
+          <t>1507.39</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1865.75</t>
+          <t>1498.75</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1940.19</t>
+          <t>1597.96</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1946.84</t>
+          <t>1621.16</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3217.88</t>
+          <t>2572.01</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3136.88</t>
+          <t>2478.63</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2717.26</t>
+          <t>2218.51</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2526.37</t>
+          <t>1997.84</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1899.30</t>
+          <t>1512.28</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1887.49</t>
+          <t>1503.53</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1960.93</t>
+          <t>1603.94</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1967.44</t>
+          <t>1627.87</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3237.95</t>
+          <t>2576.42</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3158.98</t>
+          <t>2483.71</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2739.99</t>
+          <t>2225.35</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2543.81</t>
+          <t>2002.01</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1915.12</t>
+          <t>1516.94</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1903.83</t>
+          <t>1508.40</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1976.28</t>
+          <t>1609.61</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1982.68</t>
+          <t>1634.44</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3256.74</t>
+          <t>2581.13</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3178.73</t>
+          <t>2489.02</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2766.06</t>
+          <t>2232.56</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2563.33</t>
+          <t>2005.67</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1934.10</t>
+          <t>1522.25</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1922.91</t>
+          <t>1514.04</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1994.60</t>
+          <t>1636.31</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1999.93</t>
+          <t>1641.19</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3279.93</t>
+          <t>2590.16</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3202.82</t>
+          <t>2498.84</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2795.55</t>
+          <t>2243.14</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2589.21</t>
+          <t>2013.28</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1955.57</t>
+          <t>1532.92</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1944.31</t>
+          <t>1524.75</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>2016.17</t>
+          <t>1647.83</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>2022.34</t>
+          <t>1652.73</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3388.38</t>
+          <t>2655.68</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3303.17</t>
+          <t>2568.24</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2874.45</t>
+          <t>2298.62</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2645.27</t>
+          <t>2067.33</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2041.44</t>
+          <t>1597.94</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2030.72</t>
+          <t>1589.96</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2077.53</t>
+          <t>1697.84</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>2093.39</t>
+          <t>1710.34</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3850.91</t>
+          <t>3037.06</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3740.53</t>
+          <t>2957.03</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3307.04</t>
+          <t>2713.63</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3023.63</t>
+          <t>2439.79</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2297.65</t>
+          <t>1865.69</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2275.94</t>
+          <t>1853.02</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2542.07</t>
+          <t>2127.45</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2548.60</t>
+          <t>2129.97</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2913.93</t>
+          <t>2527.19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2870.45</t>
+          <t>2366.83</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1312.53</t>
+          <t>807.07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2407.08</t>
+          <t>1917.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1908.23</t>
+          <t>1475.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1894.21</t>
+          <t>1468.37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1967.33</t>
+          <t>1593.77</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1963.04</t>
+          <t>1597.39</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3299.22</t>
+          <t>2853.58</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3207.52</t>
+          <t>2659.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2808.81</t>
+          <t>2408.27</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2652.23</t>
+          <t>2096.65</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2023.41</t>
+          <t>1553.52</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2008.80</t>
+          <t>1542.91</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2083.49</t>
+          <t>1684.13</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2109.14</t>
+          <t>1708.38</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3288.83</t>
+          <t>2699.30</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3210.76</t>
+          <t>2461.11</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2788.33</t>
+          <t>2302.39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2645.81</t>
+          <t>2022.54</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2015.20</t>
+          <t>1478.40</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2000.60</t>
+          <t>1470.96</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2069.17</t>
+          <t>1641.21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2096.13</t>
+          <t>1665.51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3312.70</t>
+          <t>2701.59</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3239.98</t>
+          <t>2456.36</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2814.47</t>
+          <t>2283.26</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2668.08</t>
+          <t>2025.51</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2032.01</t>
+          <t>1483.57</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2017.37</t>
+          <t>1476.05</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>2104.35</t>
+          <t>1646.69</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2110.86</t>
+          <t>1671.11</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3338.86</t>
+          <t>2707.38</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3268.08</t>
+          <t>2456.14</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2841.46</t>
+          <t>2290.96</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2687.03</t>
+          <t>2031.72</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2049.28</t>
+          <t>1491.18</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2034.62</t>
+          <t>1482.85</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2120.90</t>
+          <t>1654.66</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2127.12</t>
+          <t>1679.81</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3362.63</t>
+          <t>2713.10</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3292.96</t>
+          <t>2456.70</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2865.68</t>
+          <t>2292.85</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2701.08</t>
+          <t>2039.97</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2064.52</t>
+          <t>1498.42</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2049.82</t>
+          <t>1489.24</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2135.52</t>
+          <t>1661.99</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2141.51</t>
+          <t>1687.86</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3384.50</t>
+          <t>2718.87</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3315.95</t>
+          <t>2458.18</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2887.88</t>
+          <t>2290.44</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2714.24</t>
+          <t>2046.41</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2078.85</t>
+          <t>1505.65</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2064.14</t>
+          <t>1496.49</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2150.07</t>
+          <t>1689.12</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2155.92</t>
+          <t>1694.70</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3410.27</t>
+          <t>2729.77</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3343.00</t>
+          <t>2465.17</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2911.60</t>
+          <t>2303.13</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2733.17</t>
+          <t>2057.55</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2098.96</t>
+          <t>1517.88</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2084.27</t>
+          <t>1508.75</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2170.11</t>
+          <t>1700.00</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2175.78</t>
+          <t>1704.30</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3504.50</t>
+          <t>2808.50</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3434.16</t>
+          <t>2558.89</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2991.02</t>
+          <t>2369.93</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2789.20</t>
+          <t>2107.37</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2185.32</t>
+          <t>1586.20</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2170.55</t>
+          <t>1577.34</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2234.86</t>
+          <t>1749.20</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2248.21</t>
+          <t>1763.27</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3895.81</t>
+          <t>3195.82</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3787.54</t>
+          <t>2886.95</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3379.35</t>
+          <t>2811.12</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3140.15</t>
+          <t>2363.10</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2445.50</t>
+          <t>1857.96</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2417.59</t>
+          <t>1838.62</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2690.22</t>
+          <t>2221.47</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2694.91</t>
+          <t>2228.32</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3047.51</t>
+          <t>2832.07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2898.25</t>
+          <t>2478.79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1376.15</t>
+          <t>1015.41</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2421.11</t>
+          <t>2023.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1938.95</t>
+          <t>1546.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1924.83</t>
+          <t>1540.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2075.22</t>
+          <t>1801.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2070.55</t>
+          <t>1805.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3420.24</t>
+          <t>3234.65</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3256.29</t>
+          <t>2830.17</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2961.29</t>
+          <t>2702.94</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2676.98</t>
+          <t>2240.95</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2047.96</t>
+          <t>1646.48</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2035.12</t>
+          <t>1639.24</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2185.78</t>
+          <t>1924.69</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2221.87</t>
+          <t>1952.60</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3395.73</t>
+          <t>3201.02</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3276.99</t>
+          <t>2816.14</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2938.79</t>
+          <t>2613.20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2661.12</t>
+          <t>2194.93</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2041.62</t>
+          <t>1631.36</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2028.84</t>
+          <t>1619.35</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2163.73</t>
+          <t>1901.46</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2195.34</t>
+          <t>1927.49</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3409.46</t>
+          <t>3201.97</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3297.69</t>
+          <t>2829.54</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2955.46</t>
+          <t>2600.66</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2686.20</t>
+          <t>2203.29</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2059.19</t>
+          <t>1641.26</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2046.39</t>
+          <t>1629.30</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2191.84</t>
+          <t>1905.11</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2198.13</t>
+          <t>1930.50</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3435.74</t>
+          <t>3211.07</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3318.55</t>
+          <t>2843.56</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2978.51</t>
+          <t>2621.01</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2705.77</t>
+          <t>2212.78</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2076.89</t>
+          <t>1656.47</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2064.06</t>
+          <t>1644.38</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2201.79</t>
+          <t>1911.50</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2207.76</t>
+          <t>1936.23</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3463.85</t>
+          <t>3219.71</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3337.17</t>
+          <t>2854.28</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3001.43</t>
+          <t>2629.33</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2718.83</t>
+          <t>2223.75</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2091.81</t>
+          <t>1662.55</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2077.27</t>
+          <t>1651.41</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2213.50</t>
+          <t>1916.16</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2216.34</t>
+          <t>1942.48</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3491.70</t>
+          <t>3225.32</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3354.46</t>
+          <t>2865.39</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3022.44</t>
+          <t>2637.73</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2731.38</t>
+          <t>2232.45</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2104.78</t>
+          <t>1671.30</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2091.80</t>
+          <t>1660.14</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2228.71</t>
+          <t>1941.81</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2236.39</t>
+          <t>1948.91</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3518.65</t>
+          <t>3238.82</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3376.01</t>
+          <t>2881.92</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3048.08</t>
+          <t>2652.29</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2748.56</t>
+          <t>2247.08</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2126.33</t>
+          <t>1685.03</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2111.81</t>
+          <t>1673.88</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2248.96</t>
+          <t>1954.41</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2256.44</t>
+          <t>1960.90</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3628.81</t>
+          <t>3335.77</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3466.85</t>
+          <t>2972.75</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3122.38</t>
+          <t>2727.50</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2802.37</t>
+          <t>2298.99</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2220.46</t>
+          <t>1755.37</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2206.11</t>
+          <t>1744.08</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2296.32</t>
+          <t>2015.30</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2315.16</t>
+          <t>2027.53</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4170.68</t>
+          <t>3866.98</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3898.39</t>
+          <t>3491.28</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3638.67</t>
+          <t>3206.05</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3246.23</t>
+          <t>2704.56</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2502.32</t>
+          <t>2062.15</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2476.12</t>
+          <t>2038.09</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2825.69</t>
+          <t>2553.34</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2837.08</t>
+          <t>2553.92</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3125.15</t>
+          <t>3005.02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2901.80</t>
+          <t>2512.09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>928.43</t>
+          <t>802.74</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2426.66</t>
+          <t>2051.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1967.56</t>
+          <t>1584.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1955.16</t>
+          <t>1578.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2093.69</t>
+          <t>1910.01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2075.02</t>
+          <t>1896.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3555.41</t>
+          <t>3447.94</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3275.05</t>
+          <t>2907.22</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2987.47</t>
+          <t>2829.61</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2671.51</t>
+          <t>2271.83</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2087.99</t>
+          <t>1713.09</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2075.05</t>
+          <t>1690.79</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2224.12</t>
+          <t>2035.06</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2254.22</t>
+          <t>2054.44</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3545.03</t>
+          <t>3423.76</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3263.22</t>
+          <t>2951.17</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>3001.98</t>
+          <t>2798.69</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2659.35</t>
+          <t>2276.47</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2086.76</t>
+          <t>1759.68</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2072.14</t>
+          <t>1737.17</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2211.36</t>
+          <t>2029.89</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2244.91</t>
+          <t>2052.86</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3569.33</t>
+          <t>3436.74</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3292.15</t>
+          <t>2998.96</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>3016.58</t>
+          <t>2802.03</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2674.99</t>
+          <t>2310.71</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2103.48</t>
+          <t>1796.69</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2090.00</t>
+          <t>1781.03</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2254.36</t>
+          <t>2043.34</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2260.60</t>
+          <t>2064.73</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3593.00</t>
+          <t>3449.21</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3336.23</t>
+          <t>3031.80</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>3041.16</t>
+          <t>2831.03</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2692.93</t>
+          <t>2348.89</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2119.13</t>
+          <t>1839.99</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2104.29</t>
+          <t>1826.23</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2270.91</t>
+          <t>2056.21</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2276.91</t>
+          <t>2079.99</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3614.07</t>
+          <t>3460.19</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3360.84</t>
+          <t>3054.35</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3064.59</t>
+          <t>2844.48</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2708.90</t>
+          <t>2410.79</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2132.52</t>
+          <t>1849.24</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2117.86</t>
+          <t>1836.48</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2287.87</t>
+          <t>2069.83</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2293.72</t>
+          <t>2093.97</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3634.02</t>
+          <t>3471.03</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3384.03</t>
+          <t>3072.20</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3084.67</t>
+          <t>2857.83</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2722.82</t>
+          <t>2431.10</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2137.71</t>
+          <t>1858.51</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2124.57</t>
+          <t>1845.38</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2300.67</t>
+          <t>2100.65</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2309.55</t>
+          <t>2104.12</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3657.69</t>
+          <t>3486.53</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3409.11</t>
+          <t>3096.93</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3111.00</t>
+          <t>2875.02</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2742.48</t>
+          <t>2469.48</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2155.51</t>
+          <t>1873.41</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2142.43</t>
+          <t>1859.49</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2320.72</t>
+          <t>2117.63</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2329.46</t>
+          <t>2123.59</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3757.51</t>
+          <t>3579.77</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3503.78</t>
+          <t>3188.68</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3197.93</t>
+          <t>2949.96</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2794.36</t>
+          <t>2516.36</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2237.81</t>
+          <t>1947.22</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2221.14</t>
+          <t>1931.89</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2381.94</t>
+          <t>2182.56</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2396.11</t>
+          <t>2194.13</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4309.31</t>
+          <t>4174.63</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3980.92</t>
+          <t>3721.45</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3757.77</t>
+          <t>3480.37</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3244.89</t>
+          <t>2880.53</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2513.79</t>
+          <t>2232.66</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2487.92</t>
+          <t>2204.48</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2980.58</t>
+          <t>2763.67</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2990.25</t>
+          <t>2766.63</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3107.39</t>
+          <t>3167.40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2817.00</t>
+          <t>2503.77</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>586.29</t>
+          <t>541.55</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2359.85</t>
+          <t>2074.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1839.39</t>
+          <t>1664.62</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1826.04</t>
+          <t>1655.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2078.88</t>
+          <t>2181.30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2064.70</t>
+          <t>2180.40</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3532.86</t>
+          <t>3574.84</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3211.98</t>
+          <t>2798.67</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2958.21</t>
+          <t>3065.33</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2591.87</t>
+          <t>2246.84</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2044.77</t>
+          <t>1759.32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2031.99</t>
+          <t>1747.02</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2214.90</t>
+          <t>2319.23</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2242.27</t>
+          <t>2349.70</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3523.93</t>
+          <t>3551.59</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3211.38</t>
+          <t>3128.48</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2963.79</t>
+          <t>3019.45</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2592.24</t>
+          <t>2537.03</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2041.45</t>
+          <t>1948.70</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2028.65</t>
+          <t>1936.60</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2210.61</t>
+          <t>2296.99</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2240.22</t>
+          <t>2330.47</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3543.07</t>
+          <t>3553.56</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3229.29</t>
+          <t>3137.08</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2996.16</t>
+          <t>3018.18</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2624.98</t>
+          <t>2540.58</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2057.45</t>
+          <t>1954.14</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2044.62</t>
+          <t>1941.86</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2250.71</t>
+          <t>2297.34</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2256.54</t>
+          <t>2333.29</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3565.88</t>
+          <t>3564.11</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3249.62</t>
+          <t>3149.33</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3014.83</t>
+          <t>3017.51</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2647.37</t>
+          <t>2548.59</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2072.78</t>
+          <t>1961.84</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2059.93</t>
+          <t>1949.43</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2261.71</t>
+          <t>2290.02</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2266.10</t>
+          <t>2333.15</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3586.45</t>
+          <t>3578.65</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3269.66</t>
+          <t>3160.98</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3037.03</t>
+          <t>2958.77</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2667.24</t>
+          <t>2559.11</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2086.09</t>
+          <t>1969.30</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2073.23</t>
+          <t>1956.83</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2274.01</t>
+          <t>2254.02</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2279.44</t>
+          <t>2312.64</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3606.64</t>
+          <t>3556.17</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3289.13</t>
+          <t>3173.27</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3054.19</t>
+          <t>2989.11</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2683.29</t>
+          <t>2568.55</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2098.60</t>
+          <t>1978.27</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2085.73</t>
+          <t>1965.73</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2288.08</t>
+          <t>2245.36</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2292.94</t>
+          <t>2250.92</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3627.77</t>
+          <t>3575.39</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3311.62</t>
+          <t>3190.87</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3070.33</t>
+          <t>3017.55</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2698.14</t>
+          <t>2583.08</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2115.86</t>
+          <t>1993.52</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2103.01</t>
+          <t>1981.00</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2307.34</t>
+          <t>2261.23</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2313.38</t>
+          <t>2266.68</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3714.33</t>
+          <t>3665.06</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3396.93</t>
+          <t>3287.48</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3155.26</t>
+          <t>3087.79</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2740.69</t>
+          <t>2636.27</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2190.09</t>
+          <t>2073.43</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2177.22</t>
+          <t>2060.72</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2373.55</t>
+          <t>2307.32</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2391.59</t>
+          <t>2326.14</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4306.63</t>
+          <t>4184.60</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3844.95</t>
+          <t>3422.24</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3695.86</t>
+          <t>3618.18</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3096.02</t>
+          <t>2950.79</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2457.23</t>
+          <t>2316.49</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2428.68</t>
+          <t>2287.31</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2976.07</t>
+          <t>2891.58</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2982.04</t>
+          <t>2895.41</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2749.21</t>
+          <t>2234.44</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2684.30</t>
+          <t>2185.57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>503.54</t>
+          <t>411.67</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2222.79</t>
+          <t>1824.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1742.37</t>
+          <t>1423.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1730.10</t>
+          <t>1417.10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1792.03</t>
+          <t>1471.40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1789.37</t>
+          <t>1498.43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3163.03</t>
+          <t>2542.67</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3063.27</t>
+          <t>2470.72</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2684.17</t>
+          <t>2273.41</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2474.55</t>
+          <t>2020.19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1858.62</t>
+          <t>1514.26</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1846.47</t>
+          <t>1503.83</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1908.61</t>
+          <t>1561.04</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1936.29</t>
+          <t>1585.97</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3160.15</t>
+          <t>2444.23</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3069.13</t>
+          <t>2437.36</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2662.91</t>
+          <t>2107.37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2475.26</t>
+          <t>1977.35</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1856.16</t>
+          <t>1478.40</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1844.40</t>
+          <t>1470.96</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1899.07</t>
+          <t>1538.13</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1925.61</t>
+          <t>1546.31</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3194.18</t>
+          <t>2436.93</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3110.04</t>
+          <t>2439.42</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2685.40</t>
+          <t>2089.37</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2499.13</t>
+          <t>1969.35</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1877.78</t>
+          <t>1483.57</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1865.75</t>
+          <t>1476.05</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1940.19</t>
+          <t>1542.13</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1946.84</t>
+          <t>1557.69</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3217.88</t>
+          <t>2437.12</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3136.88</t>
+          <t>2445.22</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2717.26</t>
+          <t>2101.81</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2526.37</t>
+          <t>1996.23</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1899.30</t>
+          <t>1491.18</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1887.49</t>
+          <t>1482.85</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1960.93</t>
+          <t>1547.82</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1967.44</t>
+          <t>1568.23</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3237.95</t>
+          <t>2438.03</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3158.98</t>
+          <t>2451.05</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2739.99</t>
+          <t>2105.25</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2543.81</t>
+          <t>2002.01</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1915.12</t>
+          <t>1498.42</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1903.83</t>
+          <t>1489.24</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1976.28</t>
+          <t>1553.32</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1982.68</t>
+          <t>1574.35</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3256.74</t>
+          <t>2439.84</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3178.73</t>
+          <t>2457.07</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2766.06</t>
+          <t>2109.38</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2563.33</t>
+          <t>2005.67</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1934.10</t>
+          <t>1505.65</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1922.91</t>
+          <t>1496.49</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1994.60</t>
+          <t>1575.38</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1999.93</t>
+          <t>1580.79</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3279.93</t>
+          <t>2447.55</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3202.82</t>
+          <t>2465.17</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2795.55</t>
+          <t>2118.56</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2589.21</t>
+          <t>2013.28</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1955.57</t>
+          <t>1517.88</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1944.31</t>
+          <t>1508.75</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>2016.17</t>
+          <t>1586.41</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>2022.34</t>
+          <t>1591.81</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3388.38</t>
+          <t>2525.56</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3303.17</t>
+          <t>2533.12</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2874.45</t>
+          <t>2181.46</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2645.27</t>
+          <t>2067.33</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2041.44</t>
+          <t>1584.17</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2030.72</t>
+          <t>1576.49</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>2077.53</t>
+          <t>1634.15</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>2093.39</t>
+          <t>1645.60</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3801.55</t>
+          <t>2931.70</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3740.53</t>
+          <t>2886.95</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3307.04</t>
+          <t>2583.48</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3023.63</t>
+          <t>2351.76</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2297.65</t>
+          <t>1831.89</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2275.94</t>
+          <t>1815.89</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2542.07</t>
+          <t>1986.92</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2548.60</t>
+          <t>1992.31</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3125.15</t>
+          <t>3182.41</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2926.47</t>
+          <t>2714.20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1531.47</t>
+          <t>1015.41</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2442.07</t>
+          <t>2181.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1967.56</t>
+          <t>1802.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1955.16</t>
+          <t>1746.40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2093.69</t>
+          <t>2181.30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2075.02</t>
+          <t>2180.40</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3555.41</t>
+          <t>3589.66</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3301.91</t>
+          <t>3110.48</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2987.47</t>
+          <t>3097.55</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2701.17</t>
+          <t>2669.23</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2087.99</t>
+          <t>2099.52</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2075.05</t>
+          <t>2085.51</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2224.12</t>
+          <t>2319.23</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2254.22</t>
+          <t>2349.70</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3545.03</t>
+          <t>3551.59</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3308.52</t>
+          <t>3128.48</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3001.98</t>
+          <t>3061.71</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2696.43</t>
+          <t>2619.68</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2086.76</t>
+          <t>2092.89</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2072.14</t>
+          <t>2078.87</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2211.36</t>
+          <t>2296.99</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2244.91</t>
+          <t>2330.47</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3569.33</t>
+          <t>3562.98</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3335.73</t>
+          <t>3146.34</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3016.58</t>
+          <t>3050.20</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2696.37</t>
+          <t>2736.23</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2103.48</t>
+          <t>2106.73</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2090.00</t>
+          <t>2092.69</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2254.36</t>
+          <t>2303.44</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2260.60</t>
+          <t>2336.03</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3593.00</t>
+          <t>3576.65</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3360.82</t>
+          <t>3416.83</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3041.16</t>
+          <t>3061.94</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2713.52</t>
+          <t>2746.21</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2119.13</t>
+          <t>2120.90</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2104.29</t>
+          <t>2094.13</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2270.91</t>
+          <t>2299.25</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2276.91</t>
+          <t>2333.15</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3614.07</t>
+          <t>3597.35</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3381.14</t>
+          <t>3434.79</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3064.59</t>
+          <t>3060.82</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2727.53</t>
+          <t>2758.17</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2132.52</t>
+          <t>2118.99</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2117.86</t>
+          <t>2103.88</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2287.87</t>
+          <t>2294.15</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2293.72</t>
+          <t>2327.67</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3634.02</t>
+          <t>3611.92</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3400.38</t>
+          <t>3447.73</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3084.67</t>
+          <t>3071.26</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2744.72</t>
+          <t>2765.18</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2137.71</t>
+          <t>2128.51</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2124.57</t>
+          <t>2113.18</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2300.67</t>
+          <t>2327.92</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2309.55</t>
+          <t>2335.82</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3657.69</t>
+          <t>3640.10</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3425.79</t>
+          <t>3467.61</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3111.00</t>
+          <t>3077.96</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2769.70</t>
+          <t>2780.58</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2155.51</t>
+          <t>2145.85</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2142.43</t>
+          <t>2130.44</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2320.72</t>
+          <t>2339.66</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2329.46</t>
+          <t>2346.74</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3757.51</t>
+          <t>3724.53</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3538.96</t>
+          <t>3568.58</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3197.93</t>
+          <t>3136.46</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2835.34</t>
+          <t>2843.20</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2237.81</t>
+          <t>2236.85</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2221.73</t>
+          <t>2221.42</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2381.94</t>
+          <t>2374.66</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2396.11</t>
+          <t>2393.89</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4339.82</t>
+          <t>4262.32</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4096.79</t>
+          <t>3928.11</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3757.77</t>
+          <t>3676.74</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3310.19</t>
+          <t>3192.47</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2541.74</t>
+          <t>2500.92</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2513.55</t>
+          <t>2473.69</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2980.58</t>
+          <t>2936.33</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2990.25</t>
+          <t>2950.91</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
